--- a/GeneraReportes/Movimientos.xlsx
+++ b/GeneraReportes/Movimientos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="126">
   <si>
     <t>Clave Contrato</t>
   </si>
@@ -65,355 +65,331 @@
     <t>FID003RST0916</t>
   </si>
   <si>
-    <t>2017-12-15 15:00:59.74</t>
-  </si>
-  <si>
-    <t>2017-12-15 00:00:00.0</t>
-  </si>
-  <si>
-    <t>IAAM</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>IBANEZ</t>
-  </si>
-  <si>
-    <t>ALCANTAR</t>
-  </si>
-  <si>
-    <t>IAAM911127HDFBLR01</t>
-  </si>
-  <si>
-    <t>IAAM9111275E2</t>
-  </si>
-  <si>
-    <t>002180902278802357</t>
-  </si>
-  <si>
-    <t>2017-08-16 00:00:00.0</t>
+    <t>2018-04-13 13:47:06.57</t>
+  </si>
+  <si>
+    <t>2018-04-13 00:00:00.0</t>
+  </si>
+  <si>
+    <t>AUCK</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>AGUERO</t>
+  </si>
+  <si>
+    <t>CAMPUZANO</t>
+  </si>
+  <si>
+    <t>AUCK771016MDFGMR07</t>
+  </si>
+  <si>
+    <t>AUCK771016PI8</t>
+  </si>
+  <si>
+    <t>002180700588790788</t>
+  </si>
+  <si>
+    <t>2016-12-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>DIRECCION COMERCIAL</t>
+  </si>
+  <si>
+    <t>DIRECTORA COMERCIAL</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>16866.99</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>BAVA</t>
+  </si>
+  <si>
+    <t>ADRIANA</t>
+  </si>
+  <si>
+    <t>BARRERA</t>
+  </si>
+  <si>
+    <t>DE LA VEGA</t>
+  </si>
+  <si>
+    <t>BAVA900213MDFRGD05</t>
+  </si>
+  <si>
+    <t>BAVA9002138X7</t>
+  </si>
+  <si>
+    <t>014180566632736192</t>
+  </si>
+  <si>
+    <t>2011-05-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>PRODUCCION</t>
+  </si>
+  <si>
+    <t>DIRECTORA POSTPRODUCCION</t>
+  </si>
+  <si>
+    <t>3499.46</t>
+  </si>
+  <si>
+    <t>CAPF</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>CAMARGO</t>
+  </si>
+  <si>
+    <t>PALACIO</t>
+  </si>
+  <si>
+    <t>CAPF860329HDFMLR04</t>
+  </si>
+  <si>
+    <t>CAPF860329G7A</t>
+  </si>
+  <si>
+    <t>014180566981606410</t>
+  </si>
+  <si>
+    <t>2016-02-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>REALIZADOR</t>
+  </si>
+  <si>
+    <t>5399.28</t>
+  </si>
+  <si>
+    <t>FAZR</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>FAVILA</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>FAZR871109HDFVPF01</t>
+  </si>
+  <si>
+    <t>FAZR871109QEA</t>
+  </si>
+  <si>
+    <t>014180566888169746</t>
+  </si>
+  <si>
+    <t>2015-09-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>PRODUCTOR</t>
+  </si>
+  <si>
+    <t>6827.59</t>
+  </si>
+  <si>
+    <t>LORR</t>
+  </si>
+  <si>
+    <t>RICARDO JAVIER</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>LORR880930HDFPMC03</t>
+  </si>
+  <si>
+    <t>LORR8809309M4</t>
+  </si>
+  <si>
+    <t>072180002488730194</t>
+  </si>
+  <si>
+    <t>2017-06-12 00:00:00.0</t>
+  </si>
+  <si>
+    <t>1462.36</t>
+  </si>
+  <si>
+    <t>MASM</t>
+  </si>
+  <si>
+    <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>MATUS</t>
+  </si>
+  <si>
+    <t>SOLER</t>
+  </si>
+  <si>
+    <t>MASM840924HDFTLG02</t>
+  </si>
+  <si>
+    <t>MASM840924Q6A</t>
+  </si>
+  <si>
+    <t>014180566130873557</t>
+  </si>
+  <si>
+    <t>2007-03-01 00:00:00.0</t>
   </si>
   <si>
     <t>DIRECCION</t>
   </si>
   <si>
-    <t>ASISTENTE DE DIRECCION</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>158.71</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>BAVA</t>
-  </si>
-  <si>
-    <t>ADRIANA</t>
-  </si>
-  <si>
-    <t>BARRERA</t>
-  </si>
-  <si>
-    <t>DE LA VEGA</t>
-  </si>
-  <si>
-    <t>BAVA900213MDFRGD05</t>
-  </si>
-  <si>
-    <t>BAVA9002138X7</t>
-  </si>
-  <si>
-    <t>014180566632736192</t>
-  </si>
-  <si>
-    <t>2011-05-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>PRODUCCION</t>
-  </si>
-  <si>
-    <t>DIRECTORA POSTPRODUCCION</t>
-  </si>
-  <si>
-    <t>16285.46</t>
-  </si>
-  <si>
-    <t>CAPF</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>CAMARGO</t>
-  </si>
-  <si>
-    <t>PALACIO</t>
-  </si>
-  <si>
-    <t>CAPF860329HDFMLR04</t>
-  </si>
-  <si>
-    <t>CAPF860329G7A</t>
-  </si>
-  <si>
-    <t>014180566981606410</t>
-  </si>
-  <si>
-    <t>2016-02-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>REALIZADOR</t>
-  </si>
-  <si>
-    <t>14178.71</t>
-  </si>
-  <si>
-    <t>FAZR</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>FAVILA</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
-  </si>
-  <si>
-    <t>FAZR871109HDFVPF01</t>
-  </si>
-  <si>
-    <t>FAZR871109QEA</t>
-  </si>
-  <si>
-    <t>014180566888169746</t>
-  </si>
-  <si>
-    <t>2015-09-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>PRODUCTOR</t>
-  </si>
-  <si>
-    <t>27941.38</t>
-  </si>
-  <si>
-    <t>LORR</t>
-  </si>
-  <si>
-    <t>RICARDO JAVIER</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>LORR880930HDFPMC03</t>
-  </si>
-  <si>
-    <t>LORR8809309M4</t>
-  </si>
-  <si>
-    <t>072180002488730194</t>
-  </si>
-  <si>
-    <t>2017-06-12 00:00:00.0</t>
-  </si>
-  <si>
-    <t>7018.30</t>
-  </si>
-  <si>
-    <t>MASM</t>
-  </si>
-  <si>
-    <t>MIGUEL</t>
-  </si>
-  <si>
-    <t>MATUS</t>
-  </si>
-  <si>
-    <t>SOLER</t>
-  </si>
-  <si>
-    <t>MASM840924HDFTLG02</t>
-  </si>
-  <si>
-    <t>MASM840924Q6A</t>
-  </si>
-  <si>
-    <t>014180566130873557</t>
-  </si>
-  <si>
-    <t>2007-03-01 00:00:00.0</t>
+    <t>DIRECTOR</t>
+  </si>
+  <si>
+    <t>8841.00</t>
+  </si>
+  <si>
+    <t>NAMR</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>NAVA</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>NAMR840809HDFVND03</t>
+  </si>
+  <si>
+    <t>NAMR840809MS1</t>
+  </si>
+  <si>
+    <t>014180566130873418</t>
+  </si>
+  <si>
+    <t>12858.73</t>
+  </si>
+  <si>
+    <t>POAJ</t>
+  </si>
+  <si>
+    <t>JENNIFER YARETHZETH</t>
+  </si>
+  <si>
+    <t>PONCE</t>
+  </si>
+  <si>
+    <t>ANAYA</t>
+  </si>
+  <si>
+    <t>POAJ861203MDFNNN08</t>
+  </si>
+  <si>
+    <t>POAJ861203HK8</t>
+  </si>
+  <si>
+    <t>014180566633094804</t>
+  </si>
+  <si>
+    <t>RELACIONES PUBLICAS</t>
+  </si>
+  <si>
+    <t>ENCARGADO DE RELACIONES PUBLICAS</t>
+  </si>
+  <si>
+    <t>1671.17</t>
+  </si>
+  <si>
+    <t>TECC</t>
+  </si>
+  <si>
+    <t>CARLOS OSWALDO</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>CARRILLO</t>
+  </si>
+  <si>
+    <t>RUCC860818HDFZRR04</t>
+  </si>
+  <si>
+    <t>RUCC860818FA7</t>
+  </si>
+  <si>
+    <t>002180700803133981</t>
+  </si>
+  <si>
+    <t>2018-03-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>EDITOR DE CONTENIDO</t>
+  </si>
+  <si>
+    <t>926.52</t>
+  </si>
+  <si>
+    <t>CARLOS ALEJANDRO</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>TECC890312HDFLHR06</t>
+  </si>
+  <si>
+    <t>TECC890312L67</t>
+  </si>
+  <si>
+    <t>1163983803</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2588.78</t>
+  </si>
+  <si>
+    <t>2018-04-30 08:19:05.073</t>
+  </si>
+  <si>
+    <t>2018-04-30 00:00:00.0</t>
+  </si>
+  <si>
+    <t>12256.99</t>
+  </si>
+  <si>
+    <t>3361.15</t>
+  </si>
+  <si>
+    <t>3510.40</t>
+  </si>
+  <si>
+    <t>5044.17</t>
   </si>
   <si>
     <t>SOCIO FUNDADOR</t>
-  </si>
-  <si>
-    <t>2480.89</t>
-  </si>
-  <si>
-    <t>NAMR</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>NAVA</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>NAMR840809HDFVND03</t>
-  </si>
-  <si>
-    <t>NAMR840809MS1</t>
-  </si>
-  <si>
-    <t>014180566130873418</t>
-  </si>
-  <si>
-    <t>2512.77</t>
-  </si>
-  <si>
-    <t>POAJ</t>
-  </si>
-  <si>
-    <t>JENNIFER YARETHZETH</t>
-  </si>
-  <si>
-    <t>PONCE</t>
-  </si>
-  <si>
-    <t>ANAYA</t>
-  </si>
-  <si>
-    <t>POAJ861203MDFNNN08</t>
-  </si>
-  <si>
-    <t>POAJ861203HK8</t>
-  </si>
-  <si>
-    <t>014180566633094804</t>
-  </si>
-  <si>
-    <t>RELACIONES PUBLICAS</t>
-  </si>
-  <si>
-    <t>17179.39</t>
-  </si>
-  <si>
-    <t>AUCK</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>AGUERO</t>
-  </si>
-  <si>
-    <t>CAMPUZANO</t>
-  </si>
-  <si>
-    <t>AUCK771016MDFGMR07</t>
-  </si>
-  <si>
-    <t>AUCK771016PI8</t>
-  </si>
-  <si>
-    <t>002180700588790788</t>
-  </si>
-  <si>
-    <t>2016-12-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>DIRECCION COMERCIAL</t>
-  </si>
-  <si>
-    <t>DIRECTORA COMERCIAL</t>
-  </si>
-  <si>
-    <t>49235.96</t>
-  </si>
-  <si>
-    <t>TECC</t>
-  </si>
-  <si>
-    <t>CARLOS ALEJANDRO</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>TECC890312HDFLHR06</t>
-  </si>
-  <si>
-    <t>TECC890312L67</t>
-  </si>
-  <si>
-    <t>1163983803</t>
-  </si>
-  <si>
-    <t>EDITOR</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>13566.84</t>
-  </si>
-  <si>
-    <t>2017-12-29 12:11:25.823</t>
-  </si>
-  <si>
-    <t>2017-12-31 00:00:00.0</t>
-  </si>
-  <si>
-    <t>8199.93</t>
-  </si>
-  <si>
-    <t>2201.05</t>
-  </si>
-  <si>
-    <t>3591.62</t>
-  </si>
-  <si>
-    <t>6038.49</t>
-  </si>
-  <si>
-    <t>1524.79</t>
-  </si>
-  <si>
-    <t>8933.16</t>
-  </si>
-  <si>
-    <t>8950.90</t>
-  </si>
-  <si>
-    <t>2474.81</t>
-  </si>
-  <si>
-    <t>12367.89</t>
-  </si>
-  <si>
-    <t>2017-12-29 12:13:01.683</t>
-  </si>
-  <si>
-    <t>34000.00</t>
-  </si>
-  <si>
-    <t>35531.30</t>
   </si>
 </sst>
 </file>
@@ -583,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -601,7 +577,7 @@
     <col min="10" max="10" width="21.10546875" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="22.19140625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="28.8828125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="36.3984375" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="4.9296875" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="18.96484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="23.90625" customWidth="true" bestFit="true"/>
@@ -942,16 +918,16 @@
         <v>79</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P7" s="17" t="s">
         <v>31</v>
@@ -968,40 +944,40 @@
         <v>18</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>79</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>31</v>
@@ -1018,40 +994,40 @@
         <v>18</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>79</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P9" s="17" t="s">
         <v>31</v>
@@ -1068,40 +1044,40 @@
         <v>18</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P10" s="17" t="s">
         <v>31</v>
@@ -1118,7 +1094,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>111</v>
@@ -1139,19 +1115,19 @@
         <v>116</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>40</v>
       </c>
       <c r="M11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="O11" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>119</v>
       </c>
       <c r="P11" s="17" t="s">
         <v>31</v>
@@ -1162,46 +1138,46 @@
         <v>16</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="P12" s="17" t="s">
         <v>31</v>
@@ -1212,46 +1188,46 @@
         <v>16</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>121</v>
-      </c>
       <c r="D13" s="17" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="L13" s="17" t="s">
         <v>40</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P13" s="17" t="s">
         <v>31</v>
@@ -1262,46 +1238,46 @@
         <v>16</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>121</v>
-      </c>
       <c r="D14" s="17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="L14" s="17" t="s">
         <v>40</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P14" s="17" t="s">
         <v>31</v>
@@ -1312,46 +1288,46 @@
         <v>16</v>
       </c>
       <c r="B15" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>121</v>
-      </c>
       <c r="D15" s="17" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>40</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N15" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P15" s="17" t="s">
         <v>31</v>
@@ -1362,10 +1338,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>120</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>121</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>63</v>
@@ -1401,7 +1377,7 @@
         <v>29</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="P16" s="17" t="s">
         <v>31</v>
@@ -1412,10 +1388,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>120</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>121</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>72</v>
@@ -1442,16 +1418,16 @@
         <v>79</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N17" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="P17" s="17" t="s">
         <v>31</v>
@@ -1462,46 +1438,46 @@
         <v>16</v>
       </c>
       <c r="B18" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>121</v>
-      </c>
       <c r="D18" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K18" s="17" t="s">
         <v>79</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="N18" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="P18" s="17" t="s">
         <v>31</v>
@@ -1512,248 +1488,48 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>121</v>
-      </c>
       <c r="D19" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K19" s="17" t="s">
         <v>79</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N19" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="P20" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="P21" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N22" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="P22" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="N23" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="P23" s="17" t="s">
         <v>31</v>
       </c>
     </row>

--- a/GeneraReportes/Movimientos.xlsx
+++ b/GeneraReportes/Movimientos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="127">
   <si>
     <t>Clave Contrato</t>
   </si>
@@ -65,13 +65,13 @@
     <t>FID003RST0916</t>
   </si>
   <si>
-    <t>2018-04-13 13:47:06.57</t>
-  </si>
-  <si>
-    <t>2018-04-13 00:00:00.0</t>
-  </si>
-  <si>
-    <t>AUCK</t>
+    <t>2018-10-15 13:57:41.017</t>
+  </si>
+  <si>
+    <t>2018-10-15 00:00:00.0</t>
+  </si>
+  <si>
+    <t>0AUCK</t>
   </si>
   <si>
     <t>KARLA</t>
@@ -95,7 +95,7 @@
     <t>2016-12-01 00:00:00.0</t>
   </si>
   <si>
-    <t>DIRECCION COMERCIAL</t>
+    <t>DIRECCION</t>
   </si>
   <si>
     <t>DIRECTORA COMERCIAL</t>
@@ -104,13 +104,13 @@
     <t>2</t>
   </si>
   <si>
-    <t>16866.99</t>
+    <t>12258.42</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>BAVA</t>
+    <t>0BAVA</t>
   </si>
   <si>
     <t>ADRIANA</t>
@@ -134,16 +134,106 @@
     <t>2011-05-01 00:00:00.0</t>
   </si>
   <si>
+    <t>DIRECTORA POSTPRODUCCION</t>
+  </si>
+  <si>
+    <t>6236.45</t>
+  </si>
+  <si>
+    <t>0LORR</t>
+  </si>
+  <si>
+    <t>RICARDO JAVIER</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>LORR880930HDFPMC03</t>
+  </si>
+  <si>
+    <t>LORR8809309M4</t>
+  </si>
+  <si>
+    <t>072180002488730194</t>
+  </si>
+  <si>
+    <t>2017-06-12 00:00:00.0</t>
+  </si>
+  <si>
     <t>PRODUCCION</t>
   </si>
   <si>
-    <t>DIRECTORA POSTPRODUCCION</t>
-  </si>
-  <si>
-    <t>3499.46</t>
-  </si>
-  <si>
-    <t>CAPF</t>
+    <t>REALIZADOR</t>
+  </si>
+  <si>
+    <t>1463.98</t>
+  </si>
+  <si>
+    <t>0POAJ</t>
+  </si>
+  <si>
+    <t>JENNIFER YARETHZETH</t>
+  </si>
+  <si>
+    <t>PONCE</t>
+  </si>
+  <si>
+    <t>ANAYA</t>
+  </si>
+  <si>
+    <t>POAJ861203MDFNNN08</t>
+  </si>
+  <si>
+    <t>POAJ861203HK8</t>
+  </si>
+  <si>
+    <t>014180566633094804</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>RELACIONES PUBLICAS</t>
+  </si>
+  <si>
+    <t>3031.00</t>
+  </si>
+  <si>
+    <t>0TECC</t>
+  </si>
+  <si>
+    <t>CARLOS ALEJANDRO</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>TECC890312HDFLHR06</t>
+  </si>
+  <si>
+    <t>TECC890312L67</t>
+  </si>
+  <si>
+    <t>1163983803</t>
+  </si>
+  <si>
+    <t>EDITOR DE CONTENIDO</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1335.14</t>
+  </si>
+  <si>
+    <t>0CAPF</t>
   </si>
   <si>
     <t>FERNANDO</t>
@@ -167,13 +257,40 @@
     <t>2016-02-01 00:00:00.0</t>
   </si>
   <si>
-    <t>REALIZADOR</t>
-  </si>
-  <si>
-    <t>5399.28</t>
-  </si>
-  <si>
-    <t>FAZR</t>
+    <t>2787.73</t>
+  </si>
+  <si>
+    <t>0NAMR</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>NAVA</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>NAMR840809HDFVND03</t>
+  </si>
+  <si>
+    <t>NAMR840809MS1</t>
+  </si>
+  <si>
+    <t>014180566130873418</t>
+  </si>
+  <si>
+    <t>2007-03-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
+  </si>
+  <si>
+    <t>9192.29</t>
+  </si>
+  <si>
+    <t>0FAZR</t>
   </si>
   <si>
     <t>RAFAEL</t>
@@ -200,37 +317,10 @@
     <t>PRODUCTOR</t>
   </si>
   <si>
-    <t>6827.59</t>
-  </si>
-  <si>
-    <t>LORR</t>
-  </si>
-  <si>
-    <t>RICARDO JAVIER</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>LORR880930HDFPMC03</t>
-  </si>
-  <si>
-    <t>LORR8809309M4</t>
-  </si>
-  <si>
-    <t>072180002488730194</t>
-  </si>
-  <si>
-    <t>2017-06-12 00:00:00.0</t>
-  </si>
-  <si>
-    <t>1462.36</t>
-  </si>
-  <si>
-    <t>MASM</t>
+    <t>7229.77</t>
+  </si>
+  <si>
+    <t>0MASM</t>
   </si>
   <si>
     <t>MIGUEL</t>
@@ -251,73 +341,34 @@
     <t>014180566130873557</t>
   </si>
   <si>
-    <t>2007-03-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>DIRECCION</t>
-  </si>
-  <si>
-    <t>DIRECTOR</t>
-  </si>
-  <si>
-    <t>8841.00</t>
-  </si>
-  <si>
-    <t>NAMR</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>NAVA</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>NAMR840809HDFVND03</t>
-  </si>
-  <si>
-    <t>NAMR840809MS1</t>
-  </si>
-  <si>
-    <t>014180566130873418</t>
-  </si>
-  <si>
-    <t>12858.73</t>
-  </si>
-  <si>
-    <t>POAJ</t>
-  </si>
-  <si>
-    <t>JENNIFER YARETHZETH</t>
-  </si>
-  <si>
-    <t>PONCE</t>
-  </si>
-  <si>
-    <t>ANAYA</t>
-  </si>
-  <si>
-    <t>POAJ861203MDFNNN08</t>
-  </si>
-  <si>
-    <t>POAJ861203HK8</t>
-  </si>
-  <si>
-    <t>014180566633094804</t>
-  </si>
-  <si>
-    <t>RELACIONES PUBLICAS</t>
-  </si>
-  <si>
-    <t>ENCARGADO DE RELACIONES PUBLICAS</t>
-  </si>
-  <si>
-    <t>1671.17</t>
-  </si>
-  <si>
-    <t>TECC</t>
+    <t>2018-10-26 12:29:22.87</t>
+  </si>
+  <si>
+    <t>2018-10-26 00:00:00.0</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>2018-10-31 15:00:54.807</t>
+  </si>
+  <si>
+    <t>2018-10-31 00:00:00.0</t>
+  </si>
+  <si>
+    <t>6350.48</t>
+  </si>
+  <si>
+    <t>2818.08</t>
+  </si>
+  <si>
+    <t>1672.15</t>
+  </si>
+  <si>
+    <t>1672.60</t>
+  </si>
+  <si>
+    <t>0RUCC</t>
   </si>
   <si>
     <t>CARLOS OSWALDO</t>
@@ -341,55 +392,7 @@
     <t>2018-03-01 00:00:00.0</t>
   </si>
   <si>
-    <t>EDITOR DE CONTENIDO</t>
-  </si>
-  <si>
-    <t>926.52</t>
-  </si>
-  <si>
-    <t>CARLOS ALEJANDRO</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>TECC890312HDFLHR06</t>
-  </si>
-  <si>
-    <t>TECC890312L67</t>
-  </si>
-  <si>
-    <t>1163983803</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2588.78</t>
-  </si>
-  <si>
-    <t>2018-04-30 08:19:05.073</t>
-  </si>
-  <si>
-    <t>2018-04-30 00:00:00.0</t>
-  </si>
-  <si>
-    <t>12256.99</t>
-  </si>
-  <si>
-    <t>3361.15</t>
-  </si>
-  <si>
-    <t>3510.40</t>
-  </si>
-  <si>
-    <t>5044.17</t>
-  </si>
-  <si>
-    <t>SOCIO FUNDADOR</t>
+    <t>546.77</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -576,8 +579,8 @@
     <col min="9" max="9" width="17.640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="21.10546875" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="21.33984375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="22.19140625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="36.3984375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="14.15625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="28.8828125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="4.9296875" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="18.96484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="23.90625" customWidth="true" bestFit="true"/>
@@ -718,16 +721,16 @@
         <v>39</v>
       </c>
       <c r="L3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>31</v>
@@ -744,31 +747,31 @@
         <v>18</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="I4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="K4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L4" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>40</v>
       </c>
       <c r="M4" s="17" t="s">
         <v>51</v>
@@ -818,7 +821,7 @@
         <v>60</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M5" s="17" t="s">
         <v>61</v>
@@ -865,19 +868,19 @@
         <v>69</v>
       </c>
       <c r="K6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="N6" s="17" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P6" s="17" t="s">
         <v>31</v>
@@ -894,40 +897,40 @@
         <v>18</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="M7" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="P7" s="17" t="s">
         <v>31</v>
@@ -944,40 +947,40 @@
         <v>18</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="H8" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="I8" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="J8" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="K8" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>79</v>
-      </c>
       <c r="L8" s="17" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P8" s="17" t="s">
         <v>31</v>
@@ -994,40 +997,40 @@
         <v>18</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P9" s="17" t="s">
         <v>31</v>
@@ -1044,40 +1047,40 @@
         <v>18</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="P10" s="17" t="s">
         <v>31</v>
@@ -1088,46 +1091,46 @@
         <v>16</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M11" s="17" t="s">
         <v>51</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P11" s="17" t="s">
         <v>31</v>
@@ -1138,46 +1141,46 @@
         <v>16</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="N12" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="P12" s="17" t="s">
         <v>31</v>
@@ -1188,46 +1191,46 @@
         <v>16</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="P13" s="17" t="s">
         <v>31</v>
@@ -1238,46 +1241,46 @@
         <v>16</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="P14" s="17" t="s">
         <v>31</v>
@@ -1288,46 +1291,46 @@
         <v>16</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="N15" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="P15" s="17" t="s">
         <v>31</v>
@@ -1338,46 +1341,46 @@
         <v>16</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="L16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="N16" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="P16" s="17" t="s">
         <v>31</v>
@@ -1388,46 +1391,46 @@
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="N17" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="P17" s="17" t="s">
         <v>31</v>
@@ -1438,46 +1441,46 @@
         <v>16</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="N18" s="17" t="s">
         <v>29</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="P18" s="17" t="s">
         <v>31</v>
@@ -1488,48 +1491,98 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="P19" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="F20" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="17" t="s">
+      <c r="G20" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="17" t="s">
         <v>31</v>
       </c>
     </row>
